--- a/matriz de cambios.xlsx
+++ b/matriz de cambios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\adminlte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8890E952-2D5A-40E9-BA06-4F03E31A1377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67477037-089E-435B-B7F9-0F811FEFF3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33810" yWindow="195" windowWidth="21600" windowHeight="14700" activeTab="1" xr2:uid="{223224EC-3CAA-4D59-8F09-6AAA8DAAB3BF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{223224EC-3CAA-4D59-8F09-6AAA8DAAB3BF}"/>
   </bookViews>
   <sheets>
     <sheet name="tickets" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Proyecto</t>
   </si>
@@ -214,6 +214,33 @@
       </rPr>
       <t>multisucursal</t>
     </r>
+  </si>
+  <si>
+    <t>listo</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>revision de seccion de reporte, revisar la correcta reasignacion del ticket, al departamento y el personal que esta a cargo de la tarea</t>
+  </si>
+  <si>
+    <t>se agrego la seccion para aceptar tickets, seleccionar la sucursal que puede asignar tickets, sucursal en donde esta visible el departamento, multisucursal, para permitir mesclar los tickets de las sucursales del departamento.</t>
+  </si>
+  <si>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>en proceso</t>
+  </si>
+  <si>
+    <t>creacion de la seccion device, grud, formulario de registro de dispositivos. Visualizacion general de los dispositovos registrados</t>
+  </si>
+  <si>
+    <t>crear seccion para la asignacion de los equipos de computo al usuario o departamento, validar la opcion de asignar equipo y desasignar equipo en caso de baja del usuario que lo est autilizando. Guardar un historico delos registros de usuo de los equipos, generar reportes y poermitir el registro de los mantenimiento realizados a los equipos</t>
   </si>
 </sst>
 </file>
@@ -592,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52B454D-0A38-4F02-A3B8-9142C8351F92}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +628,8 @@
     <col min="1" max="1" width="18.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="49.140625" customWidth="1"/>
-    <col min="4" max="4" width="42" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -625,6 +653,9 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -639,10 +670,11 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -655,8 +687,14 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -669,8 +707,14 @@
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -682,6 +726,9 @@
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -697,6 +744,9 @@
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -712,7 +762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -720,10 +770,13 @@
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -747,8 +800,12 @@
       <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -814,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C657AFF-1005-4396-95A6-0D18F710CDEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
